--- a/rtss-pre1917/src/main/resources/inner-migration/inner-migration-by-year.xlsx
+++ b/rtss-pre1917/src/main/resources/inner-migration/inner-migration-by-year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\inner-migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F544FC0C-745D-4812-8EFE-E0D8E2BC9E25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B8F142-C492-43E4-821D-A47C3440561D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="480" windowWidth="12585" windowHeight="22845" firstSheet="1" activeTab="1" xr2:uid="{F9E4B496-A029-4FA6-B261-FD896B054B05}"/>
   </bookViews>
@@ -735,7 +735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC811C8B-FE4B-4EB6-9464-61CFB76853BF}">
   <dimension ref="A1:J991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -764,10 +766,10 @@
         <v>1896</v>
       </c>
       <c r="C2" s="5">
-        <v>16538</v>
+        <v>13746</v>
       </c>
       <c r="D2" s="5">
-        <v>2775</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -777,10 +779,10 @@
         <v>1897</v>
       </c>
       <c r="C3" s="5">
-        <v>6123</v>
+        <v>4316</v>
       </c>
       <c r="D3" s="5">
-        <v>1862</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -790,10 +792,10 @@
         <v>1898</v>
       </c>
       <c r="C4" s="5">
-        <v>16660</v>
+        <v>12237</v>
       </c>
       <c r="D4" s="5">
-        <v>5721</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -803,10 +805,10 @@
         <v>1899</v>
       </c>
       <c r="C5" s="5">
-        <v>8911</v>
+        <v>17997</v>
       </c>
       <c r="D5" s="5">
-        <v>1963</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -816,10 +818,10 @@
         <v>1900</v>
       </c>
       <c r="C6" s="5">
-        <v>5028</v>
+        <v>19893</v>
       </c>
       <c r="D6" s="5">
-        <v>1884</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -829,10 +831,10 @@
         <v>1901</v>
       </c>
       <c r="C7" s="5">
-        <v>2968</v>
+        <v>6344</v>
       </c>
       <c r="D7" s="5">
-        <v>1241</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -842,10 +844,10 @@
         <v>1902</v>
       </c>
       <c r="C8" s="5">
-        <v>2113</v>
+        <v>2580</v>
       </c>
       <c r="D8" s="5">
-        <v>1024</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -855,10 +857,10 @@
         <v>1903</v>
       </c>
       <c r="C9" s="5">
-        <v>2460</v>
+        <v>2468</v>
       </c>
       <c r="D9" s="5">
-        <v>724</v>
+        <v>694</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -868,10 +870,10 @@
         <v>1904</v>
       </c>
       <c r="C10" s="5">
-        <v>381</v>
+        <v>673</v>
       </c>
       <c r="D10" s="5">
-        <v>145</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -881,10 +883,10 @@
         <v>1905</v>
       </c>
       <c r="C11" s="5">
-        <v>248</v>
+        <v>666</v>
       </c>
       <c r="D11" s="5">
-        <v>61</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -894,10 +896,10 @@
         <v>1906</v>
       </c>
       <c r="C12" s="5">
-        <v>4427</v>
+        <v>3126</v>
       </c>
       <c r="D12" s="5">
-        <v>946</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -907,10 +909,10 @@
         <v>1907</v>
       </c>
       <c r="C13" s="5">
-        <v>22828</v>
+        <v>21314</v>
       </c>
       <c r="D13" s="5">
-        <v>5007</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -920,10 +922,10 @@
         <v>1908</v>
       </c>
       <c r="C14" s="5">
-        <v>31759</v>
+        <v>56613</v>
       </c>
       <c r="D14" s="5">
-        <v>4331</v>
+        <v>8058</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -933,10 +935,10 @@
         <v>1909</v>
       </c>
       <c r="C15" s="5">
-        <v>32047</v>
+        <v>72315</v>
       </c>
       <c r="D15" s="5">
-        <v>5524</v>
+        <v>10079</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -945,18 +947,18 @@
         <v>3</v>
       </c>
       <c r="C16" s="5">
-        <v>152491</v>
+        <v>234288</v>
       </c>
       <c r="D16" s="5">
-        <v>33208</v>
+        <v>45419</v>
       </c>
       <c r="F16" s="6">
         <f>SUM(C2:C15)</f>
-        <v>152491</v>
+        <v>234288</v>
       </c>
       <c r="G16" s="6">
         <f>SUM(D2:D15)</f>
-        <v>33208</v>
+        <v>45419</v>
       </c>
       <c r="I16" s="6">
         <f>C16-F16</f>
@@ -975,10 +977,10 @@
         <v>1896</v>
       </c>
       <c r="C17" s="5">
-        <v>37765</v>
+        <v>7040</v>
       </c>
       <c r="D17" s="5">
-        <v>5353</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -988,10 +990,10 @@
         <v>1897</v>
       </c>
       <c r="C18" s="5">
-        <v>11918</v>
+        <v>3819</v>
       </c>
       <c r="D18" s="5">
-        <v>4873</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1001,10 +1003,10 @@
         <v>1898</v>
       </c>
       <c r="C19" s="5">
-        <v>8855</v>
+        <v>21969</v>
       </c>
       <c r="D19" s="5">
-        <v>3626</v>
+        <v>6561</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1014,10 +1016,10 @@
         <v>1899</v>
       </c>
       <c r="C20" s="5">
-        <v>9145</v>
+        <v>19394</v>
       </c>
       <c r="D20" s="5">
-        <v>2685</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1027,10 +1029,10 @@
         <v>1900</v>
       </c>
       <c r="C21" s="5">
-        <v>16580</v>
+        <v>7364</v>
       </c>
       <c r="D21" s="5">
-        <v>5442</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1040,10 +1042,10 @@
         <v>1901</v>
       </c>
       <c r="C22" s="5">
-        <v>11133</v>
+        <v>3968</v>
       </c>
       <c r="D22" s="5">
-        <v>2999</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1053,10 +1055,10 @@
         <v>1902</v>
       </c>
       <c r="C23" s="5">
-        <v>7875</v>
+        <v>4010</v>
       </c>
       <c r="D23" s="5">
-        <v>2269</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1066,10 +1068,10 @@
         <v>1903</v>
       </c>
       <c r="C24" s="5">
-        <v>6530</v>
+        <v>3343</v>
       </c>
       <c r="D24" s="5">
-        <v>1636</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1079,10 +1081,10 @@
         <v>1904</v>
       </c>
       <c r="C25" s="5">
-        <v>2420</v>
+        <v>642</v>
       </c>
       <c r="D25" s="5">
-        <v>466</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1092,10 +1094,10 @@
         <v>1905</v>
       </c>
       <c r="C26" s="5">
-        <v>3591</v>
+        <v>280</v>
       </c>
       <c r="D26" s="5">
-        <v>265</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1105,10 +1107,10 @@
         <v>1906</v>
       </c>
       <c r="C27" s="5">
-        <v>14565</v>
+        <v>6576</v>
       </c>
       <c r="D27" s="5">
-        <v>2682</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1118,10 +1120,10 @@
         <v>1907</v>
       </c>
       <c r="C28" s="5">
-        <v>57365</v>
+        <v>28045</v>
       </c>
       <c r="D28" s="5">
-        <v>8637</v>
+        <v>7987</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1131,10 +1133,10 @@
         <v>1908</v>
       </c>
       <c r="C29" s="5">
-        <v>55624</v>
+        <v>24532</v>
       </c>
       <c r="D29" s="5">
-        <v>8839</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1144,10 +1146,10 @@
         <v>1909</v>
       </c>
       <c r="C30" s="5">
-        <v>34720</v>
+        <v>26894</v>
       </c>
       <c r="D30" s="5">
-        <v>7284</v>
+        <v>6431</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1156,25 +1158,25 @@
         <v>3</v>
       </c>
       <c r="C31" s="5">
-        <v>278086</v>
+        <v>157876</v>
       </c>
       <c r="D31" s="5">
-        <v>57056</v>
+        <v>44452</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" ref="F31:G31" si="2">SUM(C17:C30)</f>
-        <v>278086</v>
+        <v>157876</v>
       </c>
       <c r="G31" s="6">
         <f t="shared" si="2"/>
-        <v>57056</v>
+        <v>44452</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" ref="I31:I94" si="3">C31-F31</f>
+        <f t="shared" ref="I31" si="3">C31-F31</f>
         <v>0</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" ref="J31:J94" si="4">D31-G31</f>
+        <f t="shared" ref="J31" si="4">D31-G31</f>
         <v>0</v>
       </c>
     </row>
@@ -1186,23 +1188,23 @@
         <v>1896</v>
       </c>
       <c r="C32" s="5">
-        <v>5713</v>
+        <v>6068</v>
       </c>
       <c r="D32" s="5">
-        <v>1266</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="1">
-        <f t="shared" ref="B33:B96" si="5">B32+1</f>
+        <f t="shared" ref="B33" si="5">B32+1</f>
         <v>1897</v>
       </c>
       <c r="C33" s="5">
-        <v>1649</v>
+        <v>1014</v>
       </c>
       <c r="D33" s="5">
-        <v>404</v>
+        <v>804</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1212,10 +1214,10 @@
         <v>1898</v>
       </c>
       <c r="C34" s="5">
-        <v>7862</v>
+        <v>4766</v>
       </c>
       <c r="D34" s="5">
-        <v>1899</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1225,10 +1227,10 @@
         <v>1899</v>
       </c>
       <c r="C35" s="5">
-        <v>4050</v>
+        <v>7561</v>
       </c>
       <c r="D35" s="5">
-        <v>821</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1238,10 +1240,10 @@
         <v>1900</v>
       </c>
       <c r="C36" s="5">
-        <v>1391</v>
+        <v>3648</v>
       </c>
       <c r="D36" s="5">
-        <v>595</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1251,10 +1253,10 @@
         <v>1901</v>
       </c>
       <c r="C37" s="5">
-        <v>593</v>
+        <v>1916</v>
       </c>
       <c r="D37" s="5">
-        <v>370</v>
+        <v>924</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1264,10 +1266,10 @@
         <v>1902</v>
       </c>
       <c r="C38" s="5">
-        <v>514</v>
+        <v>2321</v>
       </c>
       <c r="D38" s="5">
-        <v>325</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1277,10 +1279,10 @@
         <v>1903</v>
       </c>
       <c r="C39" s="5">
-        <v>363</v>
+        <v>2908</v>
       </c>
       <c r="D39" s="5">
-        <v>127</v>
+        <v>632</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1290,10 +1292,10 @@
         <v>1904</v>
       </c>
       <c r="C40" s="5">
-        <v>113</v>
+        <v>1942</v>
       </c>
       <c r="D40" s="5">
-        <v>38</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1303,10 +1305,10 @@
         <v>1905</v>
       </c>
       <c r="C41" s="5">
-        <v>184</v>
+        <v>1267</v>
       </c>
       <c r="D41" s="5">
-        <v>15</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1316,10 +1318,10 @@
         <v>1906</v>
       </c>
       <c r="C42" s="5">
-        <v>960</v>
+        <v>7386</v>
       </c>
       <c r="D42" s="5">
-        <v>253</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1329,10 +1331,10 @@
         <v>1907</v>
       </c>
       <c r="C43" s="5">
-        <v>5954</v>
+        <v>11314</v>
       </c>
       <c r="D43" s="5">
-        <v>1287</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1342,10 +1344,10 @@
         <v>1908</v>
       </c>
       <c r="C44" s="5">
-        <v>3621</v>
+        <v>8414</v>
       </c>
       <c r="D44" s="5">
-        <v>796</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1355,10 +1357,10 @@
         <v>1909</v>
       </c>
       <c r="C45" s="5">
-        <v>3087</v>
+        <v>12212</v>
       </c>
       <c r="D45" s="5">
-        <v>743</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1367,25 +1369,25 @@
         <v>3</v>
       </c>
       <c r="C46" s="5">
-        <v>36454</v>
+        <v>72737</v>
       </c>
       <c r="D46" s="5">
-        <v>8939</v>
+        <v>19986</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" ref="F46:G46" si="6">SUM(C32:C45)</f>
-        <v>36054</v>
+        <v>72737</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="6"/>
-        <v>8939</v>
+        <v>19986</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" ref="I46:I109" si="7">C46-F46</f>
-        <v>400</v>
+        <f t="shared" ref="I46" si="7">C46-F46</f>
+        <v>0</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" ref="J46:J109" si="8">D46-G46</f>
+        <f t="shared" ref="J46" si="8">D46-G46</f>
         <v>0</v>
       </c>
     </row>
@@ -1406,7 +1408,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="1">
-        <f t="shared" ref="B48:B111" si="9">B47+1</f>
+        <f t="shared" ref="B48" si="9">B47+1</f>
         <v>1897</v>
       </c>
       <c r="C48" s="5">
@@ -1592,11 +1594,11 @@
         <v>33208</v>
       </c>
       <c r="I61" s="6">
-        <f t="shared" ref="I61:I124" si="11">C61-F61</f>
+        <f t="shared" ref="I61" si="11">C61-F61</f>
         <v>0</v>
       </c>
       <c r="J61" s="6">
-        <f t="shared" ref="J61:J124" si="12">D61-G61</f>
+        <f t="shared" ref="J61" si="12">D61-G61</f>
         <v>0</v>
       </c>
     </row>
@@ -1617,7 +1619,7 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="1">
-        <f t="shared" ref="B63:B126" si="13">B62+1</f>
+        <f t="shared" ref="B63" si="13">B62+1</f>
         <v>1897</v>
       </c>
       <c r="C63" s="5">
@@ -1803,11 +1805,11 @@
         <v>57056</v>
       </c>
       <c r="I76" s="6">
-        <f t="shared" ref="I76:I139" si="15">C76-F76</f>
+        <f t="shared" ref="I76" si="15">C76-F76</f>
         <v>0</v>
       </c>
       <c r="J76" s="6">
-        <f t="shared" ref="J76:J139" si="16">D76-G76</f>
+        <f t="shared" ref="J76" si="16">D76-G76</f>
         <v>0</v>
       </c>
     </row>
@@ -1828,7 +1830,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="1">
-        <f t="shared" ref="B78:B141" si="17">B77+1</f>
+        <f t="shared" ref="B78" si="17">B77+1</f>
         <v>1897</v>
       </c>
       <c r="C78" s="5">
@@ -2014,11 +2016,11 @@
         <v>8939</v>
       </c>
       <c r="I91" s="6">
-        <f t="shared" ref="I91:I154" si="20">C91-F91</f>
+        <f t="shared" ref="I91" si="20">C91-F91</f>
         <v>400</v>
       </c>
       <c r="J91" s="6">
-        <f t="shared" ref="J91:J154" si="21">D91-G91</f>
+        <f t="shared" ref="J91" si="21">D91-G91</f>
         <v>0</v>
       </c>
     </row>
@@ -2039,7 +2041,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="1">
-        <f t="shared" ref="B93:B156" si="22">B92+1</f>
+        <f t="shared" ref="B93" si="22">B92+1</f>
         <v>1897</v>
       </c>
       <c r="C93" s="5">
@@ -2225,11 +2227,11 @@
         <v>9694</v>
       </c>
       <c r="I106" s="6">
-        <f t="shared" ref="I106:I169" si="24">C106-F106</f>
+        <f t="shared" ref="I106" si="24">C106-F106</f>
         <v>0</v>
       </c>
       <c r="J106" s="6">
-        <f t="shared" ref="J106:J169" si="25">D106-G106</f>
+        <f t="shared" ref="J106" si="25">D106-G106</f>
         <v>0</v>
       </c>
     </row>
@@ -2250,7 +2252,7 @@
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="1">
-        <f t="shared" ref="B108:B171" si="26">B107+1</f>
+        <f t="shared" ref="B108" si="26">B107+1</f>
         <v>1897</v>
       </c>
       <c r="C108" s="5">
@@ -2436,11 +2438,11 @@
         <v>66890</v>
       </c>
       <c r="I121" s="6">
-        <f t="shared" ref="I121:I184" si="28">C121-F121</f>
+        <f t="shared" ref="I121" si="28">C121-F121</f>
         <v>0</v>
       </c>
       <c r="J121" s="6">
-        <f t="shared" ref="J121:J184" si="29">D121-G121</f>
+        <f t="shared" ref="J121" si="29">D121-G121</f>
         <v>0</v>
       </c>
     </row>
@@ -2461,7 +2463,7 @@
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="1">
-        <f t="shared" ref="B123:B186" si="30">B122+1</f>
+        <f t="shared" ref="B123" si="30">B122+1</f>
         <v>1897</v>
       </c>
       <c r="C123" s="5">
@@ -2647,11 +2649,11 @@
         <v>37534</v>
       </c>
       <c r="I136" s="6">
-        <f t="shared" ref="I136:I199" si="32">C136-F136</f>
+        <f t="shared" ref="I136" si="32">C136-F136</f>
         <v>0</v>
       </c>
       <c r="J136" s="6">
-        <f t="shared" ref="J136:J199" si="33">D136-G136</f>
+        <f t="shared" ref="J136" si="33">D136-G136</f>
         <v>0</v>
       </c>
     </row>
@@ -2672,7 +2674,7 @@
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="1">
-        <f t="shared" ref="B138:B201" si="34">B137+1</f>
+        <f t="shared" ref="B138" si="34">B137+1</f>
         <v>1897</v>
       </c>
       <c r="C138" s="5">
@@ -2858,11 +2860,11 @@
         <v>49107</v>
       </c>
       <c r="I151" s="6">
-        <f t="shared" ref="I151:I214" si="37">C151-F151</f>
+        <f t="shared" ref="I151" si="37">C151-F151</f>
         <v>0</v>
       </c>
       <c r="J151" s="6">
-        <f t="shared" ref="J151:J214" si="38">D151-G151</f>
+        <f t="shared" ref="J151" si="38">D151-G151</f>
         <v>0</v>
       </c>
     </row>
@@ -2883,7 +2885,7 @@
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="1">
-        <f t="shared" ref="B153:B216" si="39">B152+1</f>
+        <f t="shared" ref="B153" si="39">B152+1</f>
         <v>1897</v>
       </c>
       <c r="C153" s="5">
@@ -3069,11 +3071,11 @@
         <v>35616</v>
       </c>
       <c r="I166" s="6">
-        <f t="shared" ref="I166:I229" si="41">C166-F166</f>
+        <f t="shared" ref="I166" si="41">C166-F166</f>
         <v>0</v>
       </c>
       <c r="J166" s="6">
-        <f t="shared" ref="J166:J229" si="42">D166-G166</f>
+        <f t="shared" ref="J166" si="42">D166-G166</f>
         <v>0</v>
       </c>
     </row>
@@ -3094,7 +3096,7 @@
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="1">
-        <f t="shared" ref="B168:B231" si="43">B167+1</f>
+        <f t="shared" ref="B168" si="43">B167+1</f>
         <v>1897</v>
       </c>
       <c r="C168" s="5">
@@ -3280,11 +3282,11 @@
         <v>15784</v>
       </c>
       <c r="I181" s="6">
-        <f t="shared" ref="I181:I244" si="45">C181-F181</f>
+        <f t="shared" ref="I181" si="45">C181-F181</f>
         <v>0</v>
       </c>
       <c r="J181" s="6">
-        <f t="shared" ref="J181:J244" si="46">D181-G181</f>
+        <f t="shared" ref="J181" si="46">D181-G181</f>
         <v>0</v>
       </c>
     </row>
@@ -3305,7 +3307,7 @@
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="1">
-        <f t="shared" ref="B183:B246" si="47">B182+1</f>
+        <f t="shared" ref="B183" si="47">B182+1</f>
         <v>1897</v>
       </c>
       <c r="C183" s="5">
@@ -3491,11 +3493,11 @@
         <v>11835</v>
       </c>
       <c r="I196" s="6">
-        <f t="shared" ref="I196:I259" si="49">C196-F196</f>
+        <f t="shared" ref="I196" si="49">C196-F196</f>
         <v>0</v>
       </c>
       <c r="J196" s="6">
-        <f t="shared" ref="J196:J259" si="50">D196-G196</f>
+        <f t="shared" ref="J196" si="50">D196-G196</f>
         <v>0</v>
       </c>
     </row>
@@ -3516,7 +3518,7 @@
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="1">
-        <f t="shared" ref="B198:B261" si="51">B197+1</f>
+        <f t="shared" ref="B198" si="51">B197+1</f>
         <v>1897</v>
       </c>
       <c r="C198" s="5">
@@ -3672,7 +3674,7 @@
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="1">
-        <f t="shared" ref="B210:B273" si="52">B209+1</f>
+        <f t="shared" ref="B210:B270" si="52">B209+1</f>
         <v>1909</v>
       </c>
       <c r="C210" s="5">
@@ -3702,11 +3704,11 @@
         <v>12111</v>
       </c>
       <c r="I211" s="6">
-        <f t="shared" ref="I211:I274" si="54">C211-F211</f>
+        <f t="shared" ref="I211" si="54">C211-F211</f>
         <v>0</v>
       </c>
       <c r="J211" s="6">
-        <f t="shared" ref="J211:J274" si="55">D211-G211</f>
+        <f t="shared" ref="J211" si="55">D211-G211</f>
         <v>0</v>
       </c>
     </row>
@@ -3727,7 +3729,7 @@
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="1">
-        <f t="shared" ref="B213:B276" si="56">B212+1</f>
+        <f t="shared" ref="B213" si="56">B212+1</f>
         <v>1897</v>
       </c>
       <c r="C213" s="5">
@@ -3913,11 +3915,11 @@
         <v>31187</v>
       </c>
       <c r="I226" s="6">
-        <f t="shared" ref="I226:I289" si="58">C226-F226</f>
+        <f t="shared" ref="I226" si="58">C226-F226</f>
         <v>0</v>
       </c>
       <c r="J226" s="6">
-        <f t="shared" ref="J226:J289" si="59">D226-G226</f>
+        <f t="shared" ref="J226" si="59">D226-G226</f>
         <v>0</v>
       </c>
     </row>
@@ -3938,7 +3940,7 @@
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="1">
-        <f t="shared" ref="B228:B291" si="60">B227+1</f>
+        <f t="shared" ref="B228" si="60">B227+1</f>
         <v>1897</v>
       </c>
       <c r="C228" s="5">
@@ -4124,11 +4126,11 @@
         <v>25234</v>
       </c>
       <c r="I241" s="6">
-        <f t="shared" ref="I241:I304" si="62">C241-F241</f>
+        <f t="shared" ref="I241" si="62">C241-F241</f>
         <v>0</v>
       </c>
       <c r="J241" s="6">
-        <f t="shared" ref="J241:J304" si="63">D241-G241</f>
+        <f t="shared" ref="J241" si="63">D241-G241</f>
         <v>0</v>
       </c>
     </row>
@@ -4149,7 +4151,7 @@
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="1">
-        <f t="shared" ref="B243:B306" si="64">B242+1</f>
+        <f t="shared" ref="B243" si="64">B242+1</f>
         <v>1897</v>
       </c>
       <c r="C243" s="5">
@@ -4335,11 +4337,11 @@
         <v>16715</v>
       </c>
       <c r="I256" s="6">
-        <f t="shared" ref="I256:I319" si="66">C256-F256</f>
+        <f t="shared" ref="I256" si="66">C256-F256</f>
         <v>0</v>
       </c>
       <c r="J256" s="6">
-        <f t="shared" ref="J256:J319" si="67">D256-G256</f>
+        <f t="shared" ref="J256" si="67">D256-G256</f>
         <v>0</v>
       </c>
     </row>
@@ -4360,7 +4362,7 @@
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="1">
-        <f t="shared" ref="B258:B321" si="68">B257+1</f>
+        <f t="shared" ref="B258" si="68">B257+1</f>
         <v>1897</v>
       </c>
       <c r="C258" s="5">
@@ -4546,11 +4548,11 @@
         <v>10125</v>
       </c>
       <c r="I271" s="6">
-        <f t="shared" ref="I271:I334" si="70">C271-F271</f>
+        <f t="shared" ref="I271" si="70">C271-F271</f>
         <v>0</v>
       </c>
       <c r="J271" s="6">
-        <f t="shared" ref="J271:J334" si="71">D271-G271</f>
+        <f t="shared" ref="J271" si="71">D271-G271</f>
         <v>0</v>
       </c>
     </row>
@@ -4757,11 +4759,11 @@
         <v>886</v>
       </c>
       <c r="I286" s="6">
-        <f t="shared" ref="I286:I349" si="74">C286-F286</f>
+        <f t="shared" ref="I286" si="74">C286-F286</f>
         <v>0</v>
       </c>
       <c r="J286" s="6">
-        <f t="shared" ref="J286:J349" si="75">D286-G286</f>
+        <f t="shared" ref="J286" si="75">D286-G286</f>
         <v>0</v>
       </c>
     </row>
@@ -4782,7 +4784,7 @@
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="1">
-        <f t="shared" ref="B288:B351" si="76">B287+1</f>
+        <f t="shared" ref="B288" si="76">B287+1</f>
         <v>1897</v>
       </c>
       <c r="C288" s="5">
@@ -4968,11 +4970,11 @@
         <v>5451.0830000000005</v>
       </c>
       <c r="I301" s="6">
-        <f t="shared" ref="I301:I364" si="78">C301-F301</f>
+        <f t="shared" ref="I301" si="78">C301-F301</f>
         <v>0</v>
       </c>
       <c r="J301" s="6">
-        <f t="shared" ref="J301:J364" si="79">D301-G301</f>
+        <f t="shared" ref="J301" si="79">D301-G301</f>
         <v>1081.9169999999995</v>
       </c>
     </row>
@@ -4993,7 +4995,7 @@
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="1">
-        <f t="shared" ref="B303:B366" si="80">B302+1</f>
+        <f t="shared" ref="B303" si="80">B302+1</f>
         <v>1897</v>
       </c>
       <c r="C303" s="5">
@@ -5179,11 +5181,11 @@
         <v>4610</v>
       </c>
       <c r="I316" s="6">
-        <f t="shared" ref="I316:I379" si="82">C316-F316</f>
+        <f t="shared" ref="I316" si="82">C316-F316</f>
         <v>0</v>
       </c>
       <c r="J316" s="6">
-        <f t="shared" ref="J316:J379" si="83">D316-G316</f>
+        <f t="shared" ref="J316" si="83">D316-G316</f>
         <v>-4605.3900000000003</v>
       </c>
     </row>
@@ -5204,7 +5206,7 @@
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="1">
-        <f t="shared" ref="B318:B381" si="84">B317+1</f>
+        <f t="shared" ref="B318" si="84">B317+1</f>
         <v>1897</v>
       </c>
       <c r="C318" s="5">
@@ -5390,11 +5392,11 @@
         <v>14499</v>
       </c>
       <c r="I331" s="6">
-        <f t="shared" ref="I331:I394" si="86">C331-F331</f>
+        <f t="shared" ref="I331" si="86">C331-F331</f>
         <v>0</v>
       </c>
       <c r="J331" s="6">
-        <f t="shared" ref="J331:J394" si="87">D331-G331</f>
+        <f t="shared" ref="J331" si="87">D331-G331</f>
         <v>0</v>
       </c>
     </row>
@@ -5415,7 +5417,7 @@
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="1">
-        <f t="shared" ref="B333:B396" si="88">B332+1</f>
+        <f t="shared" ref="B333" si="88">B332+1</f>
         <v>1897</v>
       </c>
       <c r="C333" s="5">
@@ -5601,11 +5603,11 @@
         <v>27375</v>
       </c>
       <c r="I346" s="6">
-        <f t="shared" ref="I346:I409" si="91">C346-F346</f>
+        <f t="shared" ref="I346" si="91">C346-F346</f>
         <v>0</v>
       </c>
       <c r="J346" s="6">
-        <f t="shared" ref="J346:J409" si="92">D346-G346</f>
+        <f t="shared" ref="J346" si="92">D346-G346</f>
         <v>0</v>
       </c>
     </row>
@@ -5626,7 +5628,7 @@
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="1">
-        <f t="shared" ref="B348:B411" si="93">B347+1</f>
+        <f t="shared" ref="B348" si="93">B347+1</f>
         <v>1897</v>
       </c>
       <c r="C348" s="5">
@@ -5812,11 +5814,11 @@
         <v>42007</v>
       </c>
       <c r="I361" s="6">
-        <f t="shared" ref="I361:I424" si="95">C361-F361</f>
+        <f t="shared" ref="I361" si="95">C361-F361</f>
         <v>0</v>
       </c>
       <c r="J361" s="6">
-        <f t="shared" ref="J361:J424" si="96">D361-G361</f>
+        <f t="shared" ref="J361" si="96">D361-G361</f>
         <v>0</v>
       </c>
     </row>
@@ -5837,7 +5839,7 @@
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="1">
-        <f t="shared" ref="B363:B426" si="97">B362+1</f>
+        <f t="shared" ref="B363" si="97">B362+1</f>
         <v>1897</v>
       </c>
       <c r="C363" s="5">
@@ -6023,11 +6025,11 @@
         <v>8424</v>
       </c>
       <c r="I376" s="6">
-        <f t="shared" ref="I376:I439" si="99">C376-F376</f>
+        <f t="shared" ref="I376" si="99">C376-F376</f>
         <v>0</v>
       </c>
       <c r="J376" s="6">
-        <f t="shared" ref="J376:J439" si="100">D376-G376</f>
+        <f t="shared" ref="J376" si="100">D376-G376</f>
         <v>0</v>
       </c>
     </row>
@@ -6048,7 +6050,7 @@
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="1">
-        <f t="shared" ref="B378:B441" si="101">B377+1</f>
+        <f t="shared" ref="B378" si="101">B377+1</f>
         <v>1897</v>
       </c>
       <c r="C378" s="5">
@@ -6234,11 +6236,11 @@
         <v>3700</v>
       </c>
       <c r="I391" s="6">
-        <f t="shared" ref="I391:I454" si="103">C391-F391</f>
+        <f t="shared" ref="I391" si="103">C391-F391</f>
         <v>0</v>
       </c>
       <c r="J391" s="6">
-        <f t="shared" ref="J391:J454" si="104">D391-G391</f>
+        <f t="shared" ref="J391" si="104">D391-G391</f>
         <v>0</v>
       </c>
     </row>
@@ -6255,7 +6257,7 @@
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="1">
-        <f t="shared" ref="B393:B456" si="105">B392+1</f>
+        <f t="shared" ref="B393" si="105">B392+1</f>
         <v>1897</v>
       </c>
       <c r="C393" s="5"/>
@@ -6414,11 +6416,11 @@
         <v>19</v>
       </c>
       <c r="I406" s="6">
-        <f t="shared" ref="I406:I469" si="108">C406-F406</f>
+        <f t="shared" ref="I406" si="108">C406-F406</f>
         <v>0</v>
       </c>
       <c r="J406" s="6">
-        <f t="shared" ref="J406:J469" si="109">D406-G406</f>
+        <f t="shared" ref="J406" si="109">D406-G406</f>
         <v>0</v>
       </c>
     </row>
@@ -6439,7 +6441,7 @@
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="1">
-        <f t="shared" ref="B408:B471" si="110">B407+1</f>
+        <f t="shared" ref="B408" si="110">B407+1</f>
         <v>1897</v>
       </c>
       <c r="C408" s="5">
@@ -6625,11 +6627,11 @@
         <v>3588</v>
       </c>
       <c r="I421" s="6">
-        <f t="shared" ref="I421:I484" si="112">C421-F421</f>
+        <f t="shared" ref="I421" si="112">C421-F421</f>
         <v>0</v>
       </c>
       <c r="J421" s="6">
-        <f t="shared" ref="J421:J484" si="113">D421-G421</f>
+        <f t="shared" ref="J421" si="113">D421-G421</f>
         <v>-3584.4119999999998</v>
       </c>
     </row>
@@ -6650,7 +6652,7 @@
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="1">
-        <f t="shared" ref="B423:B486" si="114">B422+1</f>
+        <f t="shared" ref="B423" si="114">B422+1</f>
         <v>1897</v>
       </c>
       <c r="C423" s="5">
@@ -6836,11 +6838,11 @@
         <v>2257</v>
       </c>
       <c r="I436" s="6">
-        <f t="shared" ref="I436:I499" si="116">C436-F436</f>
+        <f t="shared" ref="I436" si="116">C436-F436</f>
         <v>0</v>
       </c>
       <c r="J436" s="6">
-        <f t="shared" ref="J436:J499" si="117">D436-G436</f>
+        <f t="shared" ref="J436" si="117">D436-G436</f>
         <v>-2254.7429999999999</v>
       </c>
     </row>
@@ -6861,7 +6863,7 @@
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="1">
-        <f t="shared" ref="B438:B501" si="118">B437+1</f>
+        <f t="shared" ref="B438" si="118">B437+1</f>
         <v>1897</v>
       </c>
       <c r="C438" s="5">
@@ -7045,11 +7047,11 @@
         <v>588</v>
       </c>
       <c r="I451" s="6">
-        <f t="shared" ref="I451:I514" si="120">C451-F451</f>
+        <f t="shared" ref="I451" si="120">C451-F451</f>
         <v>-3</v>
       </c>
       <c r="J451" s="6">
-        <f t="shared" ref="J451:J514" si="121">D451-G451</f>
+        <f t="shared" ref="J451" si="121">D451-G451</f>
         <v>0</v>
       </c>
     </row>
@@ -7068,7 +7070,7 @@
     <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="1">
-        <f t="shared" ref="B453:B516" si="122">B452+1</f>
+        <f t="shared" ref="B453" si="122">B452+1</f>
         <v>1897</v>
       </c>
       <c r="C453" s="5"/>
@@ -7207,7 +7209,7 @@
     <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="1">
-        <f t="shared" ref="B465:B528" si="123">B464+1</f>
+        <f t="shared" ref="B465:B525" si="123">B464+1</f>
         <v>1909</v>
       </c>
       <c r="C465" s="5">
@@ -7237,11 +7239,11 @@
         <v>290</v>
       </c>
       <c r="I466" s="6">
-        <f t="shared" ref="I466:I529" si="125">C466-F466</f>
+        <f t="shared" ref="I466" si="125">C466-F466</f>
         <v>1</v>
       </c>
       <c r="J466" s="6">
-        <f t="shared" ref="J466:J529" si="126">D466-G466</f>
+        <f t="shared" ref="J466" si="126">D466-G466</f>
         <v>0</v>
       </c>
     </row>
@@ -7262,7 +7264,7 @@
     <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="1">
-        <f t="shared" ref="B468:B531" si="127">B467+1</f>
+        <f t="shared" ref="B468" si="127">B467+1</f>
         <v>1897</v>
       </c>
       <c r="C468" s="5">
@@ -7423,11 +7425,11 @@
         <v>75</v>
       </c>
       <c r="I481" s="6">
-        <f t="shared" ref="I481:I544" si="129">C481-F481</f>
+        <f t="shared" ref="I481" si="129">C481-F481</f>
         <v>0</v>
       </c>
       <c r="J481" s="6">
-        <f t="shared" ref="J481:J544" si="130">D481-G481</f>
+        <f t="shared" ref="J481" si="130">D481-G481</f>
         <v>0</v>
       </c>
     </row>
@@ -7444,7 +7446,7 @@
     <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
       <c r="B483" s="1">
-        <f t="shared" ref="B483:B546" si="131">B482+1</f>
+        <f t="shared" ref="B483" si="131">B482+1</f>
         <v>1897</v>
       </c>
       <c r="C483" s="5"/>
@@ -7594,11 +7596,11 @@
         <v>4</v>
       </c>
       <c r="I496" s="6">
-        <f t="shared" ref="I496:I559" si="133">C496-F496</f>
+        <f t="shared" ref="I496" si="133">C496-F496</f>
         <v>0</v>
       </c>
       <c r="J496" s="6">
-        <f t="shared" ref="J496:J559" si="134">D496-G496</f>
+        <f t="shared" ref="J496" si="134">D496-G496</f>
         <v>0</v>
       </c>
     </row>
@@ -7615,7 +7617,7 @@
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" s="3"/>
       <c r="B498" s="1">
-        <f t="shared" ref="B498:B561" si="135">B497+1</f>
+        <f t="shared" ref="B498" si="135">B497+1</f>
         <v>1897</v>
       </c>
       <c r="C498" s="5"/>
@@ -7769,11 +7771,11 @@
         <v>33</v>
       </c>
       <c r="I511" s="6">
-        <f t="shared" ref="I511:I574" si="137">C511-F511</f>
+        <f t="shared" ref="I511" si="137">C511-F511</f>
         <v>0</v>
       </c>
       <c r="J511" s="6">
-        <f t="shared" ref="J511:J574" si="138">D511-G511</f>
+        <f t="shared" ref="J511" si="138">D511-G511</f>
         <v>0</v>
       </c>
     </row>
@@ -7790,7 +7792,7 @@
     <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
       <c r="B513" s="1">
-        <f t="shared" ref="B513:B576" si="139">B512+1</f>
+        <f t="shared" ref="B513" si="139">B512+1</f>
         <v>1897</v>
       </c>
       <c r="C513" s="5"/>
@@ -7950,11 +7952,11 @@
         <v>19</v>
       </c>
       <c r="I526" s="6">
-        <f t="shared" ref="I526:I589" si="141">C526-F526</f>
+        <f t="shared" ref="I526" si="141">C526-F526</f>
         <v>0</v>
       </c>
       <c r="J526" s="6">
-        <f t="shared" ref="J526:J589" si="142">D526-G526</f>
+        <f t="shared" ref="J526" si="142">D526-G526</f>
         <v>0</v>
       </c>
     </row>
@@ -8121,11 +8123,11 @@
         <v>18</v>
       </c>
       <c r="I541" s="6">
-        <f t="shared" ref="I541:I604" si="145">C541-F541</f>
+        <f t="shared" ref="I541" si="145">C541-F541</f>
         <v>1</v>
       </c>
       <c r="J541" s="6">
-        <f t="shared" ref="J541:J604" si="146">D541-G541</f>
+        <f t="shared" ref="J541" si="146">D541-G541</f>
         <v>0</v>
       </c>
     </row>
@@ -8142,7 +8144,7 @@
     <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" s="3"/>
       <c r="B543" s="1">
-        <f t="shared" ref="B543:B606" si="147">B542+1</f>
+        <f t="shared" ref="B543" si="147">B542+1</f>
         <v>1897</v>
       </c>
       <c r="C543" s="5"/>
@@ -8294,11 +8296,11 @@
         <v>88</v>
       </c>
       <c r="I556" s="6">
-        <f t="shared" ref="I556:I619" si="149">C556-F556</f>
+        <f t="shared" ref="I556" si="149">C556-F556</f>
         <v>0</v>
       </c>
       <c r="J556" s="6">
-        <f t="shared" ref="J556:J619" si="150">D556-G556</f>
+        <f t="shared" ref="J556" si="150">D556-G556</f>
         <v>0</v>
       </c>
     </row>
@@ -8315,7 +8317,7 @@
     <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558" s="3"/>
       <c r="B558" s="1">
-        <f t="shared" ref="B558:B621" si="151">B557+1</f>
+        <f t="shared" ref="B558" si="151">B557+1</f>
         <v>1897</v>
       </c>
       <c r="C558" s="5"/>
@@ -8479,11 +8481,11 @@
         <v>207</v>
       </c>
       <c r="I571" s="6">
-        <f t="shared" ref="I571:I634" si="153">C571-F571</f>
+        <f t="shared" ref="I571" si="153">C571-F571</f>
         <v>0</v>
       </c>
       <c r="J571" s="6">
-        <f t="shared" ref="J571:J634" si="154">D571-G571</f>
+        <f t="shared" ref="J571" si="154">D571-G571</f>
         <v>0</v>
       </c>
     </row>
@@ -8504,7 +8506,7 @@
     <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573" s="3"/>
       <c r="B573" s="1">
-        <f t="shared" ref="B573:B636" si="155">B572+1</f>
+        <f t="shared" ref="B573" si="155">B572+1</f>
         <v>1897</v>
       </c>
       <c r="C573" s="5">
@@ -8690,11 +8692,11 @@
         <v>646112</v>
       </c>
       <c r="I586" s="6">
-        <f t="shared" ref="I586:I649" si="157">C586-F586</f>
+        <f t="shared" ref="I586" si="157">C586-F586</f>
         <v>33402</v>
       </c>
       <c r="J586" s="6">
-        <f t="shared" ref="J586:J649" si="158">D586-G586</f>
+        <f t="shared" ref="J586" si="158">D586-G586</f>
         <v>0</v>
       </c>
     </row>
@@ -8715,7 +8717,7 @@
     <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588" s="3"/>
       <c r="B588" s="1">
-        <f t="shared" ref="B588:B651" si="159">B587+1</f>
+        <f t="shared" ref="B588" si="159">B587+1</f>
         <v>1897</v>
       </c>
       <c r="C588" s="5">
@@ -8893,11 +8895,11 @@
         <v>110</v>
       </c>
       <c r="I601" s="6">
-        <f t="shared" ref="I601:I664" si="162">C601-F601</f>
+        <f t="shared" ref="I601" si="162">C601-F601</f>
         <v>0</v>
       </c>
       <c r="J601" s="6">
-        <f t="shared" ref="J601:J664" si="163">D601-G601</f>
+        <f t="shared" ref="J601" si="163">D601-G601</f>
         <v>0</v>
       </c>
     </row>
@@ -8918,7 +8920,7 @@
     <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" s="3"/>
       <c r="B603" s="1">
-        <f t="shared" ref="B603:B666" si="164">B602+1</f>
+        <f t="shared" ref="B603" si="164">B602+1</f>
         <v>1897</v>
       </c>
       <c r="C603" s="5">
@@ -9104,11 +9106,11 @@
         <v>4285</v>
       </c>
       <c r="I616" s="6">
-        <f t="shared" ref="I616:I679" si="166">C616-F616</f>
+        <f t="shared" ref="I616" si="166">C616-F616</f>
         <v>0</v>
       </c>
       <c r="J616" s="6">
-        <f t="shared" ref="J616:J679" si="167">D616-G616</f>
+        <f t="shared" ref="J616" si="167">D616-G616</f>
         <v>0</v>
       </c>
     </row>
@@ -9129,7 +9131,7 @@
     <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618" s="3"/>
       <c r="B618" s="1">
-        <f t="shared" ref="B618:B681" si="168">B617+1</f>
+        <f t="shared" ref="B618" si="168">B617+1</f>
         <v>1897</v>
       </c>
       <c r="C618" s="5">
@@ -9315,11 +9317,11 @@
         <v>749</v>
       </c>
       <c r="I631" s="6">
-        <f t="shared" ref="I631:I694" si="170">C631-F631</f>
+        <f t="shared" ref="I631" si="170">C631-F631</f>
         <v>0</v>
       </c>
       <c r="J631" s="6">
-        <f t="shared" ref="J631:J694" si="171">D631-G631</f>
+        <f t="shared" ref="J631" si="171">D631-G631</f>
         <v>0</v>
       </c>
     </row>
@@ -9340,7 +9342,7 @@
     <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633" s="3"/>
       <c r="B633" s="1">
-        <f t="shared" ref="B633:B696" si="172">B632+1</f>
+        <f t="shared" ref="B633" si="172">B632+1</f>
         <v>1897</v>
       </c>
       <c r="C633" s="5">
@@ -9524,11 +9526,11 @@
         <v>835</v>
       </c>
       <c r="I646" s="6">
-        <f t="shared" ref="I646:I709" si="174">C646-F646</f>
+        <f t="shared" ref="I646" si="174">C646-F646</f>
         <v>0</v>
       </c>
       <c r="J646" s="6">
-        <f t="shared" ref="J646:J709" si="175">D646-G646</f>
+        <f t="shared" ref="J646" si="175">D646-G646</f>
         <v>0</v>
       </c>
     </row>
@@ -9549,7 +9551,7 @@
     <row r="648" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
       <c r="B648" s="1">
-        <f t="shared" ref="B648:B711" si="176">B647+1</f>
+        <f t="shared" ref="B648" si="176">B647+1</f>
         <v>1897</v>
       </c>
       <c r="C648" s="5">
@@ -9735,11 +9737,11 @@
         <v>14915</v>
       </c>
       <c r="I661" s="6">
-        <f t="shared" ref="I661:I724" si="179">C661-F661</f>
+        <f t="shared" ref="I661" si="179">C661-F661</f>
         <v>0</v>
       </c>
       <c r="J661" s="6">
-        <f t="shared" ref="J661:J724" si="180">D661-G661</f>
+        <f t="shared" ref="J661" si="180">D661-G661</f>
         <v>0</v>
       </c>
     </row>
@@ -9760,7 +9762,7 @@
     <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
       <c r="B663" s="1">
-        <f t="shared" ref="B663:B726" si="181">B662+1</f>
+        <f t="shared" ref="B663" si="181">B662+1</f>
         <v>1897</v>
       </c>
       <c r="C663" s="5">
@@ -9946,11 +9948,11 @@
         <v>7636</v>
       </c>
       <c r="I676" s="6">
-        <f t="shared" ref="I676:I739" si="183">C676-F676</f>
+        <f t="shared" ref="I676" si="183">C676-F676</f>
         <v>0</v>
       </c>
       <c r="J676" s="6">
-        <f t="shared" ref="J676:J739" si="184">D676-G676</f>
+        <f t="shared" ref="J676" si="184">D676-G676</f>
         <v>0</v>
       </c>
     </row>
@@ -9971,7 +9973,7 @@
     <row r="678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A678" s="3"/>
       <c r="B678" s="1">
-        <f t="shared" ref="B678:B741" si="185">B677+1</f>
+        <f t="shared" ref="B678" si="185">B677+1</f>
         <v>1897</v>
       </c>
       <c r="C678" s="5">
@@ -10157,11 +10159,11 @@
         <v>9389</v>
       </c>
       <c r="I691" s="6">
-        <f t="shared" ref="I691:I754" si="187">C691-F691</f>
+        <f t="shared" ref="I691" si="187">C691-F691</f>
         <v>0</v>
       </c>
       <c r="J691" s="6">
-        <f t="shared" ref="J691:J754" si="188">D691-G691</f>
+        <f t="shared" ref="J691" si="188">D691-G691</f>
         <v>0</v>
       </c>
     </row>
@@ -10182,7 +10184,7 @@
     <row r="693" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A693" s="3"/>
       <c r="B693" s="1">
-        <f t="shared" ref="B693:B756" si="189">B692+1</f>
+        <f t="shared" ref="B693" si="189">B692+1</f>
         <v>1897</v>
       </c>
       <c r="C693" s="5">
@@ -10368,11 +10370,11 @@
         <v>767</v>
       </c>
       <c r="I706" s="6">
-        <f t="shared" ref="I706:I769" si="191">C706-F706</f>
+        <f t="shared" ref="I706" si="191">C706-F706</f>
         <v>0</v>
       </c>
       <c r="J706" s="6">
-        <f t="shared" ref="J706:J769" si="192">D706-G706</f>
+        <f t="shared" ref="J706" si="192">D706-G706</f>
         <v>0</v>
       </c>
     </row>
@@ -10393,7 +10395,7 @@
     <row r="708" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A708" s="3"/>
       <c r="B708" s="1">
-        <f t="shared" ref="B708:B771" si="193">B707+1</f>
+        <f t="shared" ref="B708" si="193">B707+1</f>
         <v>1897</v>
       </c>
       <c r="C708" s="5">
@@ -10549,7 +10551,7 @@
     <row r="720" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A720" s="3"/>
       <c r="B720" s="1">
-        <f t="shared" ref="B720:B783" si="194">B719+1</f>
+        <f t="shared" ref="B720:B780" si="194">B719+1</f>
         <v>1909</v>
       </c>
       <c r="C720" s="5">
@@ -10579,11 +10581,11 @@
         <v>42437</v>
       </c>
       <c r="I721" s="6">
-        <f t="shared" ref="I721:I784" si="196">C721-F721</f>
+        <f t="shared" ref="I721" si="196">C721-F721</f>
         <v>0</v>
       </c>
       <c r="J721" s="6">
-        <f t="shared" ref="J721:J784" si="197">D721-G721</f>
+        <f t="shared" ref="J721" si="197">D721-G721</f>
         <v>0</v>
       </c>
     </row>
@@ -10604,7 +10606,7 @@
     <row r="723" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A723" s="3"/>
       <c r="B723" s="1">
-        <f t="shared" ref="B723:B786" si="198">B722+1</f>
+        <f t="shared" ref="B723" si="198">B722+1</f>
         <v>1897</v>
       </c>
       <c r="C723" s="5">
@@ -10790,11 +10792,11 @@
         <v>31367</v>
       </c>
       <c r="I736" s="6">
-        <f t="shared" ref="I736:I799" si="200">C736-F736</f>
+        <f t="shared" ref="I736" si="200">C736-F736</f>
         <v>0</v>
       </c>
       <c r="J736" s="6">
-        <f t="shared" ref="J736:J799" si="201">D736-G736</f>
+        <f t="shared" ref="J736" si="201">D736-G736</f>
         <v>0</v>
       </c>
     </row>
@@ -10815,7 +10817,7 @@
     <row r="738" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A738" s="3"/>
       <c r="B738" s="1">
-        <f t="shared" ref="B738:B801" si="202">B737+1</f>
+        <f t="shared" ref="B738" si="202">B737+1</f>
         <v>1897</v>
       </c>
       <c r="C738" s="5">
@@ -11001,11 +11003,11 @@
         <v>20805</v>
       </c>
       <c r="I751" s="6">
-        <f t="shared" ref="I751:I814" si="204">C751-F751</f>
+        <f t="shared" ref="I751" si="204">C751-F751</f>
         <v>0</v>
       </c>
       <c r="J751" s="6">
-        <f t="shared" ref="J751:J814" si="205">D751-G751</f>
+        <f t="shared" ref="J751" si="205">D751-G751</f>
         <v>0</v>
       </c>
     </row>
@@ -11026,7 +11028,7 @@
     <row r="753" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A753" s="3"/>
       <c r="B753" s="1">
-        <f t="shared" ref="B753:B816" si="206">B752+1</f>
+        <f t="shared" ref="B753" si="206">B752+1</f>
         <v>1897</v>
       </c>
       <c r="C753" s="5">
@@ -11212,11 +11214,11 @@
         <v>5626</v>
       </c>
       <c r="I766" s="6">
-        <f t="shared" ref="I766:I829" si="208">C766-F766</f>
+        <f t="shared" ref="I766" si="208">C766-F766</f>
         <v>0</v>
       </c>
       <c r="J766" s="6">
-        <f t="shared" ref="J766:J829" si="209">D766-G766</f>
+        <f t="shared" ref="J766" si="209">D766-G766</f>
         <v>0</v>
       </c>
     </row>
@@ -11237,7 +11239,7 @@
     <row r="768" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A768" s="3"/>
       <c r="B768" s="1">
-        <f t="shared" ref="B768:B831" si="210">B767+1</f>
+        <f t="shared" ref="B768" si="210">B767+1</f>
         <v>1897</v>
       </c>
       <c r="C768" s="5">
@@ -11423,11 +11425,11 @@
         <v>23606</v>
       </c>
       <c r="I781" s="6">
-        <f t="shared" ref="I781:I844" si="212">C781-F781</f>
+        <f t="shared" ref="I781" si="212">C781-F781</f>
         <v>0</v>
       </c>
       <c r="J781" s="6">
-        <f t="shared" ref="J781:J844" si="213">D781-G781</f>
+        <f t="shared" ref="J781" si="213">D781-G781</f>
         <v>0</v>
       </c>
     </row>
@@ -11634,11 +11636,11 @@
         <v>7972</v>
       </c>
       <c r="I796" s="6">
-        <f t="shared" ref="I796:I827" si="216">C796-F796</f>
+        <f t="shared" ref="I796" si="216">C796-F796</f>
         <v>0</v>
       </c>
       <c r="J796" s="6">
-        <f t="shared" ref="J796:J827" si="217">D796-G796</f>
+        <f t="shared" ref="J796" si="217">D796-G796</f>
         <v>0</v>
       </c>
     </row>
@@ -11659,7 +11661,7 @@
     <row r="798" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A798" s="3"/>
       <c r="B798" s="1">
-        <f t="shared" ref="B798:B829" si="218">B797+1</f>
+        <f t="shared" ref="B798" si="218">B797+1</f>
         <v>1897</v>
       </c>
       <c r="C798" s="5">
@@ -11845,11 +11847,11 @@
         <v>3599</v>
       </c>
       <c r="I811" s="6">
-        <f t="shared" ref="I811:I842" si="220">C811-F811</f>
+        <f t="shared" ref="I811" si="220">C811-F811</f>
         <v>0</v>
       </c>
       <c r="J811" s="6">
-        <f t="shared" ref="J811:J842" si="221">D811-G811</f>
+        <f t="shared" ref="J811" si="221">D811-G811</f>
         <v>0</v>
       </c>
     </row>
@@ -11870,7 +11872,7 @@
     <row r="813" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A813" s="3"/>
       <c r="B813" s="1">
-        <f t="shared" ref="B813:B844" si="222">B812+1</f>
+        <f t="shared" ref="B813" si="222">B812+1</f>
         <v>1897</v>
       </c>
       <c r="C813" s="5">
@@ -12050,11 +12052,11 @@
         <v>862</v>
       </c>
       <c r="I826" s="6">
-        <f t="shared" ref="I826:I857" si="224">C826-F826</f>
+        <f t="shared" ref="I826" si="224">C826-F826</f>
         <v>0</v>
       </c>
       <c r="J826" s="6">
-        <f t="shared" ref="J826:J857" si="225">D826-G826</f>
+        <f t="shared" ref="J826" si="225">D826-G826</f>
         <v>0</v>
       </c>
     </row>
@@ -12075,7 +12077,7 @@
     <row r="828" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A828" s="3"/>
       <c r="B828" s="1">
-        <f t="shared" ref="B828:B859" si="226">B827+1</f>
+        <f t="shared" ref="B828" si="226">B827+1</f>
         <v>1897</v>
       </c>
       <c r="C828" s="5">
@@ -12259,11 +12261,11 @@
         <v>583</v>
       </c>
       <c r="I841" s="6">
-        <f t="shared" ref="I841:I872" si="228">C841-F841</f>
+        <f t="shared" ref="I841" si="228">C841-F841</f>
         <v>0</v>
       </c>
       <c r="J841" s="6">
-        <f t="shared" ref="J841:J872" si="229">D841-G841</f>
+        <f t="shared" ref="J841" si="229">D841-G841</f>
         <v>0</v>
       </c>
     </row>
@@ -12284,7 +12286,7 @@
     <row r="843" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A843" s="3"/>
       <c r="B843" s="1">
-        <f t="shared" ref="B843:B874" si="230">B842+1</f>
+        <f t="shared" ref="B843" si="230">B842+1</f>
         <v>1897</v>
       </c>
       <c r="C843" s="5">
@@ -12470,11 +12472,11 @@
         <v>2448</v>
       </c>
       <c r="I856" s="6">
-        <f t="shared" ref="I856:I887" si="233">C856-F856</f>
+        <f t="shared" ref="I856" si="233">C856-F856</f>
         <v>0</v>
       </c>
       <c r="J856" s="6">
-        <f t="shared" ref="J856:J887" si="234">D856-G856</f>
+        <f t="shared" ref="J856" si="234">D856-G856</f>
         <v>0</v>
       </c>
     </row>
@@ -12495,7 +12497,7 @@
     <row r="858" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A858" s="3"/>
       <c r="B858" s="1">
-        <f t="shared" ref="B858:B889" si="235">B857+1</f>
+        <f t="shared" ref="B858" si="235">B857+1</f>
         <v>1897</v>
       </c>
       <c r="C858" s="5">
@@ -12681,11 +12683,11 @@
         <v>847</v>
       </c>
       <c r="I871" s="6">
-        <f t="shared" ref="I871:I902" si="237">C871-F871</f>
+        <f t="shared" ref="I871" si="237">C871-F871</f>
         <v>0</v>
       </c>
       <c r="J871" s="6">
-        <f t="shared" ref="J871:J902" si="238">D871-G871</f>
+        <f t="shared" ref="J871" si="238">D871-G871</f>
         <v>0</v>
       </c>
     </row>
@@ -12704,7 +12706,7 @@
     <row r="873" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A873" s="3"/>
       <c r="B873" s="1">
-        <f t="shared" ref="B873:B904" si="239">B872+1</f>
+        <f t="shared" ref="B873" si="239">B872+1</f>
         <v>1897</v>
       </c>
       <c r="C873" s="5">
@@ -12886,11 +12888,11 @@
         <v>378</v>
       </c>
       <c r="I886" s="6">
-        <f t="shared" ref="I886:I917" si="241">C886-F886</f>
+        <f t="shared" ref="I886" si="241">C886-F886</f>
         <v>0</v>
       </c>
       <c r="J886" s="6">
-        <f t="shared" ref="J886:J917" si="242">D886-G886</f>
+        <f t="shared" ref="J886" si="242">D886-G886</f>
         <v>0</v>
       </c>
     </row>
@@ -12911,7 +12913,7 @@
     <row r="888" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A888" s="3"/>
       <c r="B888" s="1">
-        <f t="shared" ref="B888:B919" si="243">B887+1</f>
+        <f t="shared" ref="B888" si="243">B887+1</f>
         <v>1897</v>
       </c>
       <c r="C888" s="5">
@@ -13097,11 +13099,11 @@
         <v>2488</v>
       </c>
       <c r="I901" s="6">
-        <f t="shared" ref="I901:I932" si="245">C901-F901</f>
+        <f t="shared" ref="I901" si="245">C901-F901</f>
         <v>-10</v>
       </c>
       <c r="J901" s="6">
-        <f t="shared" ref="J901:J932" si="246">D901-G901</f>
+        <f t="shared" ref="J901" si="246">D901-G901</f>
         <v>0</v>
       </c>
     </row>
@@ -13122,7 +13124,7 @@
     <row r="903" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A903" s="3"/>
       <c r="B903" s="1">
-        <f t="shared" ref="B903:B934" si="247">B902+1</f>
+        <f t="shared" ref="B903" si="247">B902+1</f>
         <v>1897</v>
       </c>
       <c r="C903" s="5">
@@ -13308,11 +13310,11 @@
         <v>2018</v>
       </c>
       <c r="I916" s="6">
-        <f t="shared" ref="I916:I947" si="250">C916-F916</f>
+        <f t="shared" ref="I916" si="250">C916-F916</f>
         <v>0</v>
       </c>
       <c r="J916" s="6">
-        <f t="shared" ref="J916:J947" si="251">D916-G916</f>
+        <f t="shared" ref="J916" si="251">D916-G916</f>
         <v>0</v>
       </c>
     </row>
@@ -13333,7 +13335,7 @@
     <row r="918" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A918" s="3"/>
       <c r="B918" s="1">
-        <f t="shared" ref="B918:B949" si="252">B917+1</f>
+        <f t="shared" ref="B918" si="252">B917+1</f>
         <v>1897</v>
       </c>
       <c r="C918" s="5">
@@ -13519,11 +13521,11 @@
         <v>789</v>
       </c>
       <c r="I931" s="6">
-        <f t="shared" ref="I931:I962" si="254">C931-F931</f>
+        <f t="shared" ref="I931" si="254">C931-F931</f>
         <v>0</v>
       </c>
       <c r="J931" s="6">
-        <f t="shared" ref="J931:J962" si="255">D931-G931</f>
+        <f t="shared" ref="J931" si="255">D931-G931</f>
         <v>0</v>
       </c>
     </row>
@@ -13544,7 +13546,7 @@
     <row r="933" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A933" s="3"/>
       <c r="B933" s="1">
-        <f t="shared" ref="B933:B976" si="256">B932+1</f>
+        <f t="shared" ref="B933" si="256">B932+1</f>
         <v>1897</v>
       </c>
       <c r="C933" s="5">
@@ -13730,11 +13732,11 @@
         <v>183499</v>
       </c>
       <c r="I946" s="6">
-        <f t="shared" ref="I946:I991" si="258">C946-F946</f>
+        <f t="shared" ref="I946" si="258">C946-F946</f>
         <v>-5000</v>
       </c>
       <c r="J946" s="6">
-        <f t="shared" ref="J946:J991" si="259">D946-G946</f>
+        <f t="shared" ref="J946" si="259">D946-G946</f>
         <v>1012</v>
       </c>
     </row>
@@ -13753,7 +13755,7 @@
     <row r="948" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A948" s="3"/>
       <c r="B948" s="1">
-        <f t="shared" ref="B948:B976" si="260">B947+1</f>
+        <f t="shared" ref="B948" si="260">B947+1</f>
         <v>1897</v>
       </c>
       <c r="C948" s="5"/>
@@ -13937,11 +13939,11 @@
         <v>45020</v>
       </c>
       <c r="I961" s="6">
-        <f t="shared" ref="I961:I991" si="262">C961-F961</f>
+        <f t="shared" ref="I961" si="262">C961-F961</f>
         <v>0</v>
       </c>
       <c r="J961" s="6">
-        <f t="shared" ref="J961:J991" si="263">D961-G961</f>
+        <f t="shared" ref="J961" si="263">D961-G961</f>
         <v>0</v>
       </c>
     </row>
@@ -14112,7 +14114,7 @@
     <row r="975" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A975" s="3"/>
       <c r="B975" s="1">
-        <f t="shared" ref="B975:B976" si="265">B974+1</f>
+        <f t="shared" ref="B975" si="265">B974+1</f>
         <v>1909</v>
       </c>
       <c r="C975" s="5">
@@ -14142,11 +14144,11 @@
         <v>305</v>
       </c>
       <c r="I976" s="6">
-        <f t="shared" ref="I976:I991" si="267">C976-F976</f>
+        <f t="shared" ref="I976" si="267">C976-F976</f>
         <v>0</v>
       </c>
       <c r="J976" s="6">
-        <f t="shared" ref="J976:J991" si="268">D976-G976</f>
+        <f t="shared" ref="J976" si="268">D976-G976</f>
         <v>0</v>
       </c>
     </row>
@@ -14763,11 +14765,11 @@
         <v>2439</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" ref="I31:I94" si="3">C31-F31</f>
+        <f t="shared" ref="I31" si="3">C31-F31</f>
         <v>0</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" ref="J31:J94" si="4">D31-G31</f>
+        <f t="shared" ref="J31" si="4">D31-G31</f>
         <v>0</v>
       </c>
     </row>
@@ -14788,7 +14790,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="1">
-        <f t="shared" ref="B33:B96" si="5">B32+1</f>
+        <f t="shared" ref="B33" si="5">B32+1</f>
         <v>1897</v>
       </c>
       <c r="C33" s="5">
@@ -14974,11 +14976,11 @@
         <v>119150</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" ref="I46:I109" si="7">C46-F46</f>
+        <f t="shared" ref="I46" si="7">C46-F46</f>
         <v>0</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" ref="J46:J109" si="8">D46-G46</f>
+        <f t="shared" ref="J46" si="8">D46-G46</f>
         <v>0</v>
       </c>
     </row>
@@ -14999,7 +15001,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="1">
-        <f t="shared" ref="B48:B111" si="9">B47+1</f>
+        <f t="shared" ref="B48" si="9">B47+1</f>
         <v>1897</v>
       </c>
       <c r="C48" s="5">
@@ -15185,11 +15187,11 @@
         <v>10562</v>
       </c>
       <c r="I61" s="6">
-        <f t="shared" ref="I61:I124" si="11">C61-F61</f>
+        <f t="shared" ref="I61" si="11">C61-F61</f>
         <v>0</v>
       </c>
       <c r="J61" s="6">
-        <f t="shared" ref="J61:J124" si="12">D61-G61</f>
+        <f t="shared" ref="J61" si="12">D61-G61</f>
         <v>0</v>
       </c>
     </row>
@@ -15210,7 +15212,7 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="1">
-        <f t="shared" ref="B63:B126" si="13">B62+1</f>
+        <f t="shared" ref="B63" si="13">B62+1</f>
         <v>1897</v>
       </c>
       <c r="C63" s="5">
@@ -15392,11 +15394,11 @@
         <v>3117</v>
       </c>
       <c r="I76" s="6">
-        <f t="shared" ref="I76:I139" si="15">C76-F76</f>
+        <f t="shared" ref="I76" si="15">C76-F76</f>
         <v>0</v>
       </c>
       <c r="J76" s="6">
-        <f t="shared" ref="J76:J139" si="16">D76-G76</f>
+        <f t="shared" ref="J76" si="16">D76-G76</f>
         <v>0</v>
       </c>
     </row>
@@ -15413,7 +15415,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="1">
-        <f t="shared" ref="B78:B141" si="17">B77+1</f>
+        <f t="shared" ref="B78" si="17">B77+1</f>
         <v>1897</v>
       </c>
       <c r="C78" s="5"/>
@@ -15563,11 +15565,11 @@
         <v>3767</v>
       </c>
       <c r="I91" s="6">
-        <f t="shared" ref="I91:I154" si="20">C91-F91</f>
+        <f t="shared" ref="I91" si="20">C91-F91</f>
         <v>0</v>
       </c>
       <c r="J91" s="6">
-        <f t="shared" ref="J91:J154" si="21">D91-G91</f>
+        <f t="shared" ref="J91" si="21">D91-G91</f>
         <v>0</v>
       </c>
     </row>
@@ -15584,7 +15586,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="1">
-        <f t="shared" ref="B93:B156" si="22">B92+1</f>
+        <f t="shared" ref="B93" si="22">B92+1</f>
         <v>1897</v>
       </c>
       <c r="C93" s="5"/>
@@ -15736,11 +15738,11 @@
         <v>620</v>
       </c>
       <c r="I106" s="6">
-        <f t="shared" ref="I106:I169" si="24">C106-F106</f>
+        <f t="shared" ref="I106" si="24">C106-F106</f>
         <v>0</v>
       </c>
       <c r="J106" s="6">
-        <f t="shared" ref="J106:J169" si="25">D106-G106</f>
+        <f t="shared" ref="J106" si="25">D106-G106</f>
         <v>0</v>
       </c>
     </row>
@@ -15757,7 +15759,7 @@
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="1">
-        <f t="shared" ref="B108:B171" si="26">B107+1</f>
+        <f t="shared" ref="B108" si="26">B107+1</f>
         <v>1897</v>
       </c>
       <c r="C108" s="5"/>
@@ -15917,11 +15919,11 @@
         <v>93</v>
       </c>
       <c r="I121" s="6">
-        <f t="shared" ref="I121:I184" si="28">C121-F121</f>
+        <f t="shared" ref="I121" si="28">C121-F121</f>
         <v>0</v>
       </c>
       <c r="J121" s="6">
-        <f t="shared" ref="J121:J184" si="29">D121-G121</f>
+        <f t="shared" ref="J121" si="29">D121-G121</f>
         <v>0</v>
       </c>
     </row>
@@ -15942,7 +15944,7 @@
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="1">
-        <f t="shared" ref="B123:B186" si="30">B122+1</f>
+        <f t="shared" ref="B123" si="30">B122+1</f>
         <v>1897</v>
       </c>
       <c r="C123" s="5">
@@ -16128,11 +16130,11 @@
         <v>216066</v>
       </c>
       <c r="I136" s="6">
-        <f t="shared" ref="I136:I199" si="32">C136-F136</f>
+        <f t="shared" ref="I136" si="32">C136-F136</f>
         <v>0</v>
       </c>
       <c r="J136" s="6">
-        <f t="shared" ref="J136:J199" si="33">D136-G136</f>
+        <f t="shared" ref="J136" si="33">D136-G136</f>
         <v>0</v>
       </c>
     </row>
@@ -16153,7 +16155,7 @@
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="1">
-        <f t="shared" ref="B138:B201" si="34">B137+1</f>
+        <f t="shared" ref="B138" si="34">B137+1</f>
         <v>1897</v>
       </c>
       <c r="C138" s="5">
@@ -16339,11 +16341,11 @@
         <v>57109</v>
       </c>
       <c r="I151" s="6">
-        <f t="shared" ref="I151:I214" si="37">C151-F151</f>
+        <f t="shared" ref="I151" si="37">C151-F151</f>
         <v>0</v>
       </c>
       <c r="J151" s="6">
-        <f t="shared" ref="J151:J214" si="38">D151-G151</f>
+        <f t="shared" ref="J151" si="38">D151-G151</f>
         <v>0</v>
       </c>
     </row>
@@ -16364,7 +16366,7 @@
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="1">
-        <f t="shared" ref="B153:B216" si="39">B152+1</f>
+        <f t="shared" ref="B153" si="39">B152+1</f>
         <v>1897</v>
       </c>
       <c r="C153" s="5">
@@ -16550,11 +16552,11 @@
         <v>92983</v>
       </c>
       <c r="I166" s="6">
-        <f t="shared" ref="I166:I229" si="41">C166-F166</f>
+        <f t="shared" ref="I166" si="41">C166-F166</f>
         <v>0</v>
       </c>
       <c r="J166" s="6">
-        <f t="shared" ref="J166:J229" si="42">D166-G166</f>
+        <f t="shared" ref="J166" si="42">D166-G166</f>
         <v>0</v>
       </c>
     </row>
@@ -16575,7 +16577,7 @@
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
       <c r="B168" s="1">
-        <f t="shared" ref="B168:B231" si="43">B167+1</f>
+        <f t="shared" ref="B168" si="43">B167+1</f>
         <v>1897</v>
       </c>
       <c r="C168" s="5">
@@ -16761,11 +16763,11 @@
         <v>211625</v>
       </c>
       <c r="I181" s="6">
-        <f t="shared" ref="I181:I244" si="45">C181-F181</f>
+        <f t="shared" ref="I181" si="45">C181-F181</f>
         <v>0</v>
       </c>
       <c r="J181" s="6">
-        <f t="shared" ref="J181:J244" si="46">D181-G181</f>
+        <f t="shared" ref="J181" si="46">D181-G181</f>
         <v>0</v>
       </c>
     </row>
@@ -16784,7 +16786,7 @@
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
       <c r="B183" s="1">
-        <f t="shared" ref="B183:B246" si="47">B182+1</f>
+        <f t="shared" ref="B183" si="47">B182+1</f>
         <v>1897</v>
       </c>
       <c r="C183" s="5">
@@ -16932,11 +16934,11 @@
         <v>130</v>
       </c>
       <c r="I196" s="6">
-        <f t="shared" ref="I196:I259" si="49">C196-F196</f>
+        <f t="shared" ref="I196" si="49">C196-F196</f>
         <v>0</v>
       </c>
       <c r="J196" s="6">
-        <f t="shared" ref="J196:J259" si="50">D196-G196</f>
+        <f t="shared" ref="J196" si="50">D196-G196</f>
         <v>0</v>
       </c>
     </row>
@@ -16957,7 +16959,7 @@
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
       <c r="B198" s="1">
-        <f t="shared" ref="B198:B261" si="51">B197+1</f>
+        <f t="shared" ref="B198" si="51">B197+1</f>
         <v>1897</v>
       </c>
       <c r="C198" s="5">
@@ -17113,7 +17115,7 @@
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
       <c r="B210" s="1">
-        <f t="shared" ref="B210:B273" si="52">B209+1</f>
+        <f t="shared" ref="B210:B270" si="52">B209+1</f>
         <v>1909</v>
       </c>
       <c r="C210" s="5">
@@ -17143,11 +17145,11 @@
         <v>304738</v>
       </c>
       <c r="I211" s="6">
-        <f t="shared" ref="I211:I274" si="54">C211-F211</f>
+        <f t="shared" ref="I211" si="54">C211-F211</f>
         <v>0</v>
       </c>
       <c r="J211" s="6">
-        <f t="shared" ref="J211:J274" si="55">D211-G211</f>
+        <f t="shared" ref="J211" si="55">D211-G211</f>
         <v>0</v>
       </c>
     </row>
@@ -17168,7 +17170,7 @@
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
       <c r="B213" s="1">
-        <f t="shared" ref="B213:B276" si="56">B212+1</f>
+        <f t="shared" ref="B213" si="56">B212+1</f>
         <v>1897</v>
       </c>
       <c r="C213" s="5">
@@ -17354,11 +17356,11 @@
         <v>76580</v>
       </c>
       <c r="I226" s="6">
-        <f t="shared" ref="I226:I289" si="58">C226-F226</f>
+        <f t="shared" ref="I226" si="58">C226-F226</f>
         <v>0</v>
       </c>
       <c r="J226" s="6">
-        <f t="shared" ref="J226:J289" si="59">D226-G226</f>
+        <f t="shared" ref="J226" si="59">D226-G226</f>
         <v>0</v>
       </c>
     </row>
@@ -17379,7 +17381,7 @@
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="1">
-        <f t="shared" ref="B228:B291" si="60">B227+1</f>
+        <f t="shared" ref="B228" si="60">B227+1</f>
         <v>1897</v>
       </c>
       <c r="C228" s="5">
@@ -17565,11 +17567,11 @@
         <v>23471</v>
       </c>
       <c r="I241" s="6">
-        <f t="shared" ref="I241:I304" si="62">C241-F241</f>
+        <f t="shared" ref="I241" si="62">C241-F241</f>
         <v>0</v>
       </c>
       <c r="J241" s="6">
-        <f t="shared" ref="J241:J304" si="63">D241-G241</f>
+        <f t="shared" ref="J241" si="63">D241-G241</f>
         <v>0</v>
       </c>
     </row>
@@ -17590,7 +17592,7 @@
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="1">
-        <f t="shared" ref="B243:B306" si="64">B242+1</f>
+        <f t="shared" ref="B243" si="64">B242+1</f>
         <v>1897</v>
       </c>
       <c r="C243" s="5">
@@ -17776,11 +17778,11 @@
         <v>461898</v>
       </c>
       <c r="I256" s="6">
-        <f t="shared" ref="I256:I319" si="66">C256-F256</f>
+        <f t="shared" ref="I256" si="66">C256-F256</f>
         <v>0</v>
       </c>
       <c r="J256" s="6">
-        <f t="shared" ref="J256:J319" si="67">D256-G256</f>
+        <f t="shared" ref="J256" si="67">D256-G256</f>
         <v>0</v>
       </c>
     </row>
@@ -17801,7 +17803,7 @@
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="1">
-        <f t="shared" ref="B258:B321" si="68">B257+1</f>
+        <f t="shared" ref="B258" si="68">B257+1</f>
         <v>1897</v>
       </c>
       <c r="C258" s="5">
@@ -17987,11 +17989,11 @@
         <v>677964</v>
       </c>
       <c r="I271" s="6">
-        <f t="shared" ref="I271:I334" si="70">C271-F271</f>
+        <f t="shared" ref="I271" si="70">C271-F271</f>
         <v>0</v>
       </c>
       <c r="J271" s="6">
-        <f t="shared" ref="J271:J334" si="71">D271-G271</f>
+        <f t="shared" ref="J271" si="71">D271-G271</f>
         <v>0</v>
       </c>
     </row>
@@ -18192,11 +18194,11 @@
         <v>6432</v>
       </c>
       <c r="I286" s="6">
-        <f t="shared" ref="I286:I317" si="74">C286-F286</f>
+        <f t="shared" ref="I286" si="74">C286-F286</f>
         <v>0</v>
       </c>
       <c r="J286" s="6">
-        <f t="shared" ref="J286:J317" si="75">D286-G286</f>
+        <f t="shared" ref="J286" si="75">D286-G286</f>
         <v>0</v>
       </c>
     </row>
@@ -18217,7 +18219,7 @@
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="1">
-        <f t="shared" ref="B288:B319" si="76">B287+1</f>
+        <f t="shared" ref="B288" si="76">B287+1</f>
         <v>1897</v>
       </c>
       <c r="C288" s="5">
@@ -18403,11 +18405,11 @@
         <v>14683</v>
       </c>
       <c r="I301" s="6">
-        <f t="shared" ref="I301:I332" si="78">C301-F301</f>
+        <f t="shared" ref="I301" si="78">C301-F301</f>
         <v>0</v>
       </c>
       <c r="J301" s="6">
-        <f t="shared" ref="J301:J332" si="79">D301-G301</f>
+        <f t="shared" ref="J301" si="79">D301-G301</f>
         <v>0</v>
       </c>
     </row>
@@ -18428,7 +18430,7 @@
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="1">
-        <f t="shared" ref="B303:B334" si="80">B302+1</f>
+        <f t="shared" ref="B303" si="80">B302+1</f>
         <v>1897</v>
       </c>
       <c r="C303" s="5">
@@ -18614,11 +18616,11 @@
         <v>34117</v>
       </c>
       <c r="I316" s="6">
-        <f t="shared" ref="I316:I347" si="82">C316-F316</f>
+        <f t="shared" ref="I316" si="82">C316-F316</f>
         <v>0</v>
       </c>
       <c r="J316" s="6">
-        <f t="shared" ref="J316:J347" si="83">D316-G316</f>
+        <f t="shared" ref="J316" si="83">D316-G316</f>
         <v>0</v>
       </c>
     </row>
@@ -18635,7 +18637,7 @@
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="1">
-        <f t="shared" ref="B318:B349" si="84">B317+1</f>
+        <f t="shared" ref="B318" si="84">B317+1</f>
         <v>1897</v>
       </c>
       <c r="C318" s="5"/>
@@ -18805,11 +18807,11 @@
         <v>97</v>
       </c>
       <c r="I331" s="6">
-        <f t="shared" ref="I331:I362" si="86">C331-F331</f>
+        <f t="shared" ref="I331" si="86">C331-F331</f>
         <v>0</v>
       </c>
       <c r="J331" s="6">
-        <f t="shared" ref="J331:J362" si="87">D331-G331</f>
+        <f t="shared" ref="J331" si="87">D331-G331</f>
         <v>0</v>
       </c>
     </row>
@@ -18830,7 +18832,7 @@
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
       <c r="B333" s="1">
-        <f t="shared" ref="B333:B364" si="88">B332+1</f>
+        <f t="shared" ref="B333" si="88">B332+1</f>
         <v>1897</v>
       </c>
       <c r="C333" s="5">
@@ -19016,11 +19018,11 @@
         <v>55329</v>
       </c>
       <c r="I346" s="6">
-        <f t="shared" ref="I346:I377" si="91">C346-F346</f>
+        <f t="shared" ref="I346" si="91">C346-F346</f>
         <v>0</v>
       </c>
       <c r="J346" s="6">
-        <f t="shared" ref="J346:J377" si="92">D346-G346</f>
+        <f t="shared" ref="J346" si="92">D346-G346</f>
         <v>0</v>
       </c>
     </row>
@@ -19041,7 +19043,7 @@
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
       <c r="B348" s="1">
-        <f t="shared" ref="B348:B379" si="93">B347+1</f>
+        <f t="shared" ref="B348" si="93">B347+1</f>
         <v>1897</v>
       </c>
       <c r="C348" s="5">
@@ -19227,11 +19229,11 @@
         <v>733293</v>
       </c>
       <c r="I361" s="6">
-        <f t="shared" ref="I361:I392" si="95">C361-F361</f>
+        <f t="shared" ref="I361" si="95">C361-F361</f>
         <v>0</v>
       </c>
       <c r="J361" s="6">
-        <f t="shared" ref="J361:J392" si="96">D361-G361</f>
+        <f t="shared" ref="J361" si="96">D361-G361</f>
         <v>0</v>
       </c>
     </row>
@@ -19252,7 +19254,7 @@
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="1">
-        <f t="shared" ref="B363:B394" si="97">B362+1</f>
+        <f t="shared" ref="B363" si="97">B362+1</f>
         <v>1897</v>
       </c>
       <c r="C363" s="5">
@@ -19438,11 +19440,11 @@
         <v>34252</v>
       </c>
       <c r="I376" s="6">
-        <f t="shared" ref="I376:I407" si="99">C376-F376</f>
+        <f t="shared" ref="I376" si="99">C376-F376</f>
         <v>0</v>
       </c>
       <c r="J376" s="6">
-        <f t="shared" ref="J376:J407" si="100">D376-G376</f>
+        <f t="shared" ref="J376" si="100">D376-G376</f>
         <v>0</v>
       </c>
     </row>
@@ -19459,7 +19461,7 @@
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="1">
-        <f t="shared" ref="B378:B409" si="101">B377+1</f>
+        <f t="shared" ref="B378" si="101">B377+1</f>
         <v>1897</v>
       </c>
       <c r="C378" s="5"/>
@@ -19629,11 +19631,11 @@
         <v>8623</v>
       </c>
       <c r="I391" s="6">
-        <f t="shared" ref="I391:I422" si="103">C391-F391</f>
+        <f t="shared" ref="I391" si="103">C391-F391</f>
         <v>0</v>
       </c>
       <c r="J391" s="6">
-        <f t="shared" ref="J391:J422" si="104">D391-G391</f>
+        <f t="shared" ref="J391" si="104">D391-G391</f>
         <v>0</v>
       </c>
     </row>
@@ -19650,7 +19652,7 @@
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="3"/>
       <c r="B393" s="1">
-        <f t="shared" ref="B393:B424" si="105">B392+1</f>
+        <f t="shared" ref="B393" si="105">B392+1</f>
         <v>1897</v>
       </c>
       <c r="C393" s="5"/>
@@ -19811,11 +19813,11 @@
         <v>4606</v>
       </c>
       <c r="I406" s="6">
-        <f t="shared" ref="I406:I437" si="108">C406-F406</f>
+        <f t="shared" ref="I406" si="108">C406-F406</f>
         <v>0</v>
       </c>
       <c r="J406" s="6">
-        <f t="shared" ref="J406:J437" si="109">D406-G406</f>
+        <f t="shared" ref="J406" si="109">D406-G406</f>
         <v>0</v>
       </c>
     </row>
@@ -19832,7 +19834,7 @@
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
       <c r="B408" s="1">
-        <f t="shared" ref="B408:B439" si="110">B407+1</f>
+        <f t="shared" ref="B408" si="110">B407+1</f>
         <v>1897</v>
       </c>
       <c r="C408" s="5"/>
@@ -20010,11 +20012,11 @@
         <v>2602</v>
       </c>
       <c r="I421" s="6">
-        <f t="shared" ref="I421:I452" si="112">C421-F421</f>
+        <f t="shared" ref="I421" si="112">C421-F421</f>
         <v>0</v>
       </c>
       <c r="J421" s="6">
-        <f t="shared" ref="J421:J452" si="113">D421-G421</f>
+        <f t="shared" ref="J421" si="113">D421-G421</f>
         <v>0</v>
       </c>
     </row>
@@ -20035,7 +20037,7 @@
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="1">
-        <f t="shared" ref="B423:B466" si="114">B422+1</f>
+        <f t="shared" ref="B423" si="114">B422+1</f>
         <v>1897</v>
       </c>
       <c r="C423" s="5">
@@ -20221,11 +20223,11 @@
         <v>50083</v>
       </c>
       <c r="I436" s="6">
-        <f t="shared" ref="I436:I481" si="116">C436-F436</f>
+        <f t="shared" ref="I436" si="116">C436-F436</f>
         <v>0</v>
       </c>
       <c r="J436" s="6">
-        <f t="shared" ref="J436:J481" si="117">D436-G436</f>
+        <f t="shared" ref="J436" si="117">D436-G436</f>
         <v>0</v>
       </c>
     </row>
@@ -20244,7 +20246,7 @@
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="1">
-        <f t="shared" ref="B438:B466" si="118">B437+1</f>
+        <f t="shared" ref="B438" si="118">B437+1</f>
         <v>1897</v>
       </c>
       <c r="C438" s="5"/>
@@ -20402,11 +20404,11 @@
         <v>92038</v>
       </c>
       <c r="I451" s="6">
-        <f t="shared" ref="I451:I481" si="120">C451-F451</f>
+        <f t="shared" ref="I451" si="120">C451-F451</f>
         <v>0</v>
       </c>
       <c r="J451" s="6">
-        <f t="shared" ref="J451:J481" si="121">D451-G451</f>
+        <f t="shared" ref="J451" si="121">D451-G451</f>
         <v>0</v>
       </c>
     </row>
@@ -20569,7 +20571,7 @@
     <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="1">
-        <f t="shared" ref="B465:B466" si="123">B464+1</f>
+        <f t="shared" ref="B465" si="123">B464+1</f>
         <v>1909</v>
       </c>
       <c r="C465" s="5">
@@ -20599,11 +20601,11 @@
         <v>534</v>
       </c>
       <c r="I466" s="6">
-        <f t="shared" ref="I466:I481" si="125">C466-F466</f>
+        <f t="shared" ref="I466" si="125">C466-F466</f>
         <v>0</v>
       </c>
       <c r="J466" s="6">
-        <f t="shared" ref="J466:J481" si="126">D466-G466</f>
+        <f t="shared" ref="J466" si="126">D466-G466</f>
         <v>0</v>
       </c>
     </row>
